--- a/data/study_search/database_search/processed/post_AS/packages_for_full_text_download/study_set_24.xlsx
+++ b/data/study_search/database_search/processed/post_AS/packages_for_full_text_download/study_set_24.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franzprante/GitHub/MORPEP/META_CMP/data/data/study_search/database_search/processed/post_AS/packages_for_full_text_download/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D61E36A3-4EE2-5142-B5FF-5FFFF89809CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9440D5EE-D7B7-524A-8713-91CC63E3576C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4980" yWindow="-21100" windowWidth="38400" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-300" yWindow="-21100" windowWidth="29040" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1345" uniqueCount="888">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1346" uniqueCount="888">
   <si>
     <t>record_id</t>
   </si>
@@ -3037,8 +3037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="117" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="AF87" sqref="AF87"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="117" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="X12" sqref="X12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3940,16 +3940,16 @@
         <v>0</v>
       </c>
       <c r="W12" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X12" s="3"/>
       <c r="Y12" t="s">
         <v>94</v>
       </c>
+      <c r="Z12" t="s">
+        <v>46</v>
+      </c>
       <c r="AG12">
-        <v>1</v>
-      </c>
-      <c r="AH12">
         <v>1</v>
       </c>
     </row>

--- a/data/study_search/database_search/processed/post_AS/packages_for_full_text_download/study_set_24.xlsx
+++ b/data/study_search/database_search/processed/post_AS/packages_for_full_text_download/study_set_24.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franzprante/GitHub/MORPEP/META_CMP/data/data/study_search/database_search/processed/post_AS/packages_for_full_text_download/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA4D242F-DD42-4C4B-AE29-9DA6BE4D5A23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6631A90-A422-9548-B780-E8A48CF235B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="740" windowWidth="20520" windowHeight="16740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4440" yWindow="760" windowWidth="20520" windowHeight="16740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1423" uniqueCount="890">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1424" uniqueCount="891">
   <si>
     <t>record_id</t>
   </si>
@@ -2695,6 +2695,9 @@
   </si>
   <si>
     <t>full_random_check; "inttype": yield curve</t>
+  </si>
+  <si>
+    <t>effect_size_unclear</t>
   </si>
 </sst>
 </file>
@@ -3043,8 +3046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W70" zoomScale="150" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="AC84" sqref="AC84"/>
+    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="150" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="Y12" sqref="Y12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3966,7 +3969,9 @@
       <c r="W12" s="3">
         <v>0</v>
       </c>
-      <c r="X12" s="3"/>
+      <c r="X12" s="3" t="s">
+        <v>890</v>
+      </c>
       <c r="Y12" t="s">
         <v>92</v>
       </c>
